--- a/Excel Files for test/Стандарт цены.xlsx
+++ b/Excel Files for test/Стандарт цены.xlsx
@@ -649,10 +649,8 @@
       <c r="L2" s="12" t="n">
         <v>910</v>
       </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
+      <c r="M2" s="10" t="n">
+        <v>910</v>
       </c>
       <c r="N2" s="13" t="n">
         <v>46</v>
@@ -660,10 +658,8 @@
       <c r="O2" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="P2" s="11" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="P2" s="11" t="n">
+        <v>46</v>
       </c>
       <c r="Q2" s="13" t="n">
         <v>0</v>
@@ -714,10 +710,8 @@
       <c r="L3" s="12" t="n">
         <v>910</v>
       </c>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
+      <c r="M3" s="10" t="n">
+        <v>913</v>
       </c>
       <c r="N3" s="13" t="n">
         <v>51</v>
@@ -725,10 +719,8 @@
       <c r="O3" s="13" t="n">
         <v>61</v>
       </c>
-      <c r="P3" s="11" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="P3" s="11" t="n">
+        <v>53</v>
       </c>
       <c r="Q3" s="13" t="n">
         <v>0</v>
@@ -779,10 +771,8 @@
       <c r="L4" s="12" t="n">
         <v>765</v>
       </c>
-      <c r="M4" s="10" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
+      <c r="M4" s="10" t="n">
+        <v>765</v>
       </c>
       <c r="N4" s="13" t="n">
         <v>40</v>
@@ -790,10 +780,8 @@
       <c r="O4" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="P4" s="11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="P4" s="11" t="n">
+        <v>35</v>
       </c>
       <c r="Q4" s="13" t="n">
         <v>0</v>
@@ -962,10 +950,8 @@
       <c r="L7" s="12" t="n">
         <v>810</v>
       </c>
-      <c r="M7" s="10" t="inlineStr">
-        <is>
-          <t>810</t>
-        </is>
+      <c r="M7" s="10" t="n">
+        <v>829</v>
       </c>
       <c r="N7" s="13" t="n">
         <v>55</v>
@@ -973,10 +959,8 @@
       <c r="O7" s="13" t="n">
         <v>65</v>
       </c>
-      <c r="P7" s="11" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="P7" s="11" t="n">
+        <v>58</v>
       </c>
       <c r="Q7" s="13" t="n">
         <v>0</v>
@@ -1027,10 +1011,8 @@
       <c r="L8" s="12" t="n">
         <v>810</v>
       </c>
-      <c r="M8" s="10" t="inlineStr">
-        <is>
-          <t>810</t>
-        </is>
+      <c r="M8" s="10" t="n">
+        <v>810</v>
       </c>
       <c r="N8" s="13" t="n">
         <v>60</v>
@@ -1038,10 +1020,8 @@
       <c r="O8" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="P8" s="11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="P8" s="11" t="n">
+        <v>62</v>
       </c>
       <c r="Q8" s="13" t="n">
         <v>0</v>
@@ -1094,10 +1074,8 @@
       <c r="L9" s="12" t="n">
         <v>810</v>
       </c>
-      <c r="M9" s="10" t="inlineStr">
-        <is>
-          <t>810</t>
-        </is>
+      <c r="M9" s="10" t="n">
+        <v>810</v>
       </c>
       <c r="N9" s="13" t="n">
         <v>58</v>
@@ -1105,10 +1083,8 @@
       <c r="O9" s="13" t="n">
         <v>68</v>
       </c>
-      <c r="P9" s="11" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="P9" s="11" t="n">
+        <v>59</v>
       </c>
       <c r="Q9" s="13" t="n">
         <v>0</v>
@@ -1220,10 +1196,8 @@
       <c r="L11" s="12" t="n">
         <v>910</v>
       </c>
-      <c r="M11" s="10" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
+      <c r="M11" s="10" t="n">
+        <v>913</v>
       </c>
       <c r="N11" s="13" t="n">
         <v>51</v>
@@ -1231,10 +1205,8 @@
       <c r="O11" s="13" t="n">
         <v>61</v>
       </c>
-      <c r="P11" s="11" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="P11" s="11" t="n">
+        <v>53</v>
       </c>
       <c r="Q11" s="13" t="n">
         <v>0</v>
@@ -1285,10 +1257,8 @@
       <c r="L12" s="12" t="n">
         <v>910</v>
       </c>
-      <c r="M12" s="10" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
+      <c r="M12" s="10" t="n">
+        <v>913</v>
       </c>
       <c r="N12" s="13" t="n">
         <v>51</v>
@@ -1296,10 +1266,8 @@
       <c r="O12" s="13" t="n">
         <v>61</v>
       </c>
-      <c r="P12" s="11" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="P12" s="11" t="n">
+        <v>53</v>
       </c>
       <c r="Q12" s="13" t="n">
         <v>0</v>
@@ -1350,10 +1318,8 @@
       <c r="L13" s="12" t="n">
         <v>800</v>
       </c>
-      <c r="M13" s="10" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
+      <c r="M13" s="10" t="n">
+        <v>800</v>
       </c>
       <c r="N13" s="13" t="n">
         <v>57</v>
@@ -1361,10 +1327,8 @@
       <c r="O13" s="13" t="n">
         <v>67</v>
       </c>
-      <c r="P13" s="11" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="P13" s="11" t="n">
+        <v>53</v>
       </c>
       <c r="Q13" s="13" t="n">
         <v>0</v>
@@ -1468,10 +1432,8 @@
       <c r="L15" s="12" t="n">
         <v>707</v>
       </c>
-      <c r="M15" s="10" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
+      <c r="M15" s="10" t="n">
+        <v>709</v>
       </c>
       <c r="N15" s="13" t="n">
         <v>54</v>
@@ -1479,10 +1441,8 @@
       <c r="O15" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="P15" s="11" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="P15" s="11" t="n">
+        <v>55</v>
       </c>
       <c r="Q15" s="13" t="n">
         <v>0</v>
@@ -1533,10 +1493,8 @@
       <c r="L16" s="12" t="n">
         <v>816</v>
       </c>
-      <c r="M16" s="10" t="inlineStr">
-        <is>
-          <t>816</t>
-        </is>
+      <c r="M16" s="10" t="n">
+        <v>816</v>
       </c>
       <c r="N16" s="13" t="n">
         <v>46</v>
@@ -1544,10 +1502,8 @@
       <c r="O16" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="P16" s="11" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="P16" s="11" t="n">
+        <v>41</v>
       </c>
       <c r="Q16" s="13" t="n">
         <v>0</v>
@@ -1598,10 +1554,8 @@
       <c r="L17" s="12" t="n">
         <v>910</v>
       </c>
-      <c r="M17" s="10" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
+      <c r="M17" s="10" t="n">
+        <v>913</v>
       </c>
       <c r="N17" s="13" t="n">
         <v>51</v>
@@ -1609,10 +1563,8 @@
       <c r="O17" s="13" t="n">
         <v>61</v>
       </c>
-      <c r="P17" s="11" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="P17" s="11" t="n">
+        <v>53</v>
       </c>
       <c r="Q17" s="13" t="n">
         <v>0</v>
@@ -1663,10 +1615,8 @@
       <c r="L18" s="12" t="n">
         <v>508</v>
       </c>
-      <c r="M18" s="10" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
+      <c r="M18" s="10" t="n">
+        <v>508</v>
       </c>
       <c r="N18" s="13" t="n">
         <v>46</v>
@@ -1674,10 +1624,8 @@
       <c r="O18" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="P18" s="11" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="P18" s="11" t="n">
+        <v>41</v>
       </c>
       <c r="Q18" s="13" t="n">
         <v>0</v>
@@ -1806,7 +1754,7 @@
       </c>
       <c r="P20" s="11" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="Q20" s="13" t="n">
@@ -1861,7 +1809,7 @@
       </c>
       <c r="M21" s="10" t="inlineStr">
         <is>
-          <t>3 260</t>
+          <t>3 369</t>
         </is>
       </c>
       <c r="N21" s="13" t="n">
@@ -1927,7 +1875,7 @@
       </c>
       <c r="M22" s="10" t="inlineStr">
         <is>
-          <t>3 150</t>
+          <t>3 196</t>
         </is>
       </c>
       <c r="N22" s="13" t="n">
@@ -1997,7 +1945,7 @@
       </c>
       <c r="M23" s="10" t="inlineStr">
         <is>
-          <t>3 100</t>
+          <t>3 201</t>
         </is>
       </c>
       <c r="N23" s="13" t="n">
@@ -2008,7 +1956,7 @@
       </c>
       <c r="P23" s="11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="Q23" s="13" t="n">
@@ -2073,7 +2021,7 @@
       </c>
       <c r="P24" s="11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="Q24" s="13" t="n">
@@ -2127,7 +2075,7 @@
       </c>
       <c r="M25" s="10" t="inlineStr">
         <is>
-          <t>2 582</t>
+          <t>2 602</t>
         </is>
       </c>
       <c r="N25" s="13" t="n">
@@ -2138,7 +2086,7 @@
       </c>
       <c r="P25" s="11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="Q25" s="13" t="n">
@@ -2190,10 +2138,8 @@
       <c r="L26" s="12" t="n">
         <v>800</v>
       </c>
-      <c r="M26" s="10" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
+      <c r="M26" s="10" t="n">
+        <v>800</v>
       </c>
       <c r="N26" s="13" t="n">
         <v>57</v>
@@ -2201,10 +2147,8 @@
       <c r="O26" s="13" t="n">
         <v>67</v>
       </c>
-      <c r="P26" s="11" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="P26" s="11" t="n">
+        <v>53</v>
       </c>
       <c r="Q26" s="13" t="n">
         <v>0</v>
@@ -2257,7 +2201,7 @@
       </c>
       <c r="M27" s="10" t="inlineStr">
         <is>
-          <t>2 582</t>
+          <t>2 597</t>
         </is>
       </c>
       <c r="N27" s="13" t="n">
@@ -2268,7 +2212,7 @@
       </c>
       <c r="P27" s="11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="Q27" s="13" t="n">
@@ -2322,7 +2266,7 @@
       </c>
       <c r="M28" s="10" t="inlineStr">
         <is>
-          <t>2 582</t>
+          <t>2 602</t>
         </is>
       </c>
       <c r="N28" s="13" t="n">
@@ -2333,7 +2277,7 @@
       </c>
       <c r="P28" s="11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="Q28" s="13" t="n">
@@ -2398,7 +2342,7 @@
       </c>
       <c r="P29" s="11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="Q29" s="13" t="n">
@@ -2452,7 +2396,7 @@
       </c>
       <c r="M30" s="10" t="inlineStr">
         <is>
-          <t>1 607</t>
+          <t>1 628</t>
         </is>
       </c>
       <c r="N30" s="13" t="n">
@@ -2463,7 +2407,7 @@
       </c>
       <c r="P30" s="11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Q30" s="13" t="n">
@@ -2517,7 +2461,7 @@
       </c>
       <c r="M31" s="10" t="inlineStr">
         <is>
-          <t>2 582</t>
+          <t>2 602</t>
         </is>
       </c>
       <c r="N31" s="13" t="n">
@@ -2528,7 +2472,7 @@
       </c>
       <c r="P31" s="11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="Q31" s="13" t="n">
@@ -2580,10 +2524,8 @@
       <c r="L32" s="12" t="n">
         <v>610</v>
       </c>
-      <c r="M32" s="10" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
+      <c r="M32" s="10" t="n">
+        <v>617</v>
       </c>
       <c r="N32" s="13" t="n">
         <v>48</v>
@@ -2591,10 +2533,8 @@
       <c r="O32" s="13" t="n">
         <v>58</v>
       </c>
-      <c r="P32" s="11" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="P32" s="11" t="n">
+        <v>51</v>
       </c>
       <c r="Q32" s="13" t="n">
         <v>0</v>
@@ -2647,7 +2587,7 @@
       </c>
       <c r="M33" s="10" t="inlineStr">
         <is>
-          <t>1 403</t>
+          <t>1 409</t>
         </is>
       </c>
       <c r="N33" s="13" t="n">
@@ -2658,7 +2598,7 @@
       </c>
       <c r="P33" s="11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="Q33" s="13" t="n">
@@ -2775,10 +2715,8 @@
       <c r="L35" s="12" t="n">
         <v>510</v>
       </c>
-      <c r="M35" s="10" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
+      <c r="M35" s="10" t="n">
+        <v>510</v>
       </c>
       <c r="N35" s="13" t="n">
         <v>54</v>
@@ -2786,10 +2724,8 @@
       <c r="O35" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="P35" s="11" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="P35" s="11" t="n">
+        <v>57</v>
       </c>
       <c r="Q35" s="13" t="n">
         <v>0</v>
